--- a/findbyfilewebelement/src/test/resources/excel/MissingElementData.xlsx
+++ b/findbyfilewebelement/src/test/resources/excel/MissingElementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2190" windowWidth="13455" windowHeight="6750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="14670" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>element1</t>
   </si>
   <si>
-    <t>file.excel.pagefactory.ExcelAnnotationTest$PageObject</t>
+    <t>file.pagefactory.excel.ExcelAnnotationTest$PageObject</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
